--- a/dados.xlsx
+++ b/dados.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15149.95</v>
+        <v>6209.06</v>
       </c>
       <c r="D2" t="n">
-        <v>19944.5</v>
+        <v>2438.59</v>
       </c>
       <c r="E2" t="n">
-        <v>10094.31</v>
+        <v>9849.469999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>7665.06</v>
+        <v>2841.77</v>
       </c>
       <c r="G2" t="n">
-        <v>14061.42</v>
+        <v>6516.9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14459.17</v>
+        <v>2504.19</v>
       </c>
       <c r="D3" t="n">
-        <v>18361.75</v>
+        <v>4586.76</v>
       </c>
       <c r="E3" t="n">
-        <v>7848.9</v>
+        <v>16411.4</v>
       </c>
       <c r="F3" t="n">
-        <v>17727.74</v>
+        <v>19733.52</v>
       </c>
       <c r="G3" t="n">
-        <v>9056.059999999999</v>
+        <v>7978.06</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -539,19 +539,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11536.53</v>
+        <v>12745.35</v>
       </c>
       <c r="D4" t="n">
-        <v>14747.87</v>
+        <v>13015.69</v>
       </c>
       <c r="E4" t="n">
-        <v>6896.18</v>
+        <v>9987.969999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>6794.07</v>
+        <v>11039.67</v>
       </c>
       <c r="G4" t="n">
-        <v>19207.83</v>
+        <v>5804.47</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2961.99</v>
+        <v>15607.12</v>
       </c>
       <c r="D5" t="n">
-        <v>2603.5</v>
+        <v>8748.85</v>
       </c>
       <c r="E5" t="n">
-        <v>18330.24</v>
+        <v>2380.09</v>
       </c>
       <c r="F5" t="n">
-        <v>5207.98</v>
+        <v>4211.45</v>
       </c>
       <c r="G5" t="n">
-        <v>6319.84</v>
+        <v>2268.14</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -603,19 +603,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15209.28</v>
+        <v>16458.58</v>
       </c>
       <c r="D6" t="n">
-        <v>4980.36</v>
+        <v>11384.59</v>
       </c>
       <c r="E6" t="n">
-        <v>2687.8</v>
+        <v>5389.63</v>
       </c>
       <c r="F6" t="n">
-        <v>4466.04</v>
+        <v>8523.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2495.64</v>
+        <v>12050.34</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8679.030000000001</v>
+        <v>15126.52</v>
       </c>
       <c r="D7" t="n">
-        <v>9816.040000000001</v>
+        <v>14483.7</v>
       </c>
       <c r="E7" t="n">
-        <v>10388.99</v>
+        <v>1211.32</v>
       </c>
       <c r="F7" t="n">
-        <v>10951.65</v>
+        <v>10350.09</v>
       </c>
       <c r="G7" t="n">
-        <v>15328.62</v>
+        <v>6815.98</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12568.53</v>
+        <v>16250.27</v>
       </c>
       <c r="D8" t="n">
-        <v>3987.3</v>
+        <v>16889.78</v>
       </c>
       <c r="E8" t="n">
-        <v>11400.77</v>
+        <v>7582.78</v>
       </c>
       <c r="F8" t="n">
-        <v>1316.34</v>
+        <v>14188.34</v>
       </c>
       <c r="G8" t="n">
-        <v>11398.62</v>
+        <v>12550.75</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -699,19 +699,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6935.98</v>
+        <v>13118.25</v>
       </c>
       <c r="D9" t="n">
-        <v>14116.48</v>
+        <v>3236.57</v>
       </c>
       <c r="E9" t="n">
-        <v>15606.09</v>
+        <v>11064.06</v>
       </c>
       <c r="F9" t="n">
-        <v>12281.65</v>
+        <v>12368.96</v>
       </c>
       <c r="G9" t="n">
-        <v>5782.94</v>
+        <v>4472.27</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8775.65</v>
+        <v>3039.06</v>
       </c>
       <c r="D10" t="n">
-        <v>4672.22</v>
+        <v>7638.24</v>
       </c>
       <c r="E10" t="n">
-        <v>12733.01</v>
+        <v>1852.09</v>
       </c>
       <c r="F10" t="n">
-        <v>10063.52</v>
+        <v>17182.61</v>
       </c>
       <c r="G10" t="n">
-        <v>2142.52</v>
+        <v>13935.04</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -763,19 +763,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15717.95</v>
+        <v>6412.3</v>
       </c>
       <c r="D11" t="n">
-        <v>10652.41</v>
+        <v>19625.47</v>
       </c>
       <c r="E11" t="n">
-        <v>17867.75</v>
+        <v>19487.57</v>
       </c>
       <c r="F11" t="n">
-        <v>14788.04</v>
+        <v>12342.25</v>
       </c>
       <c r="G11" t="n">
-        <v>3739.18</v>
+        <v>4454.72</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13293.96</v>
+        <v>3535.74</v>
       </c>
       <c r="D12" t="n">
-        <v>3444.86</v>
+        <v>8490.379999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>3614.25</v>
+        <v>19449.86</v>
       </c>
       <c r="F12" t="n">
-        <v>2730.25</v>
+        <v>4560.64</v>
       </c>
       <c r="G12" t="n">
-        <v>12443.85</v>
+        <v>4706.57</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -827,19 +827,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10345.11</v>
+        <v>12142.71</v>
       </c>
       <c r="D13" t="n">
-        <v>9853.43</v>
+        <v>7903.93</v>
       </c>
       <c r="E13" t="n">
-        <v>11197.36</v>
+        <v>4614.75</v>
       </c>
       <c r="F13" t="n">
-        <v>11613.57</v>
+        <v>8070.16</v>
       </c>
       <c r="G13" t="n">
-        <v>18774.63</v>
+        <v>9924.120000000001</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -859,19 +859,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12077.1</v>
+        <v>15372.36</v>
       </c>
       <c r="D14" t="n">
-        <v>11226.97</v>
+        <v>1854.75</v>
       </c>
       <c r="E14" t="n">
-        <v>14145.4</v>
+        <v>6641.87</v>
       </c>
       <c r="F14" t="n">
-        <v>19786.97</v>
+        <v>12389.89</v>
       </c>
       <c r="G14" t="n">
-        <v>8179.82</v>
+        <v>18153.84</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6414.04</v>
+        <v>14677.83</v>
       </c>
       <c r="D15" t="n">
-        <v>8695.690000000001</v>
+        <v>6592.65</v>
       </c>
       <c r="E15" t="n">
-        <v>17379.07</v>
+        <v>15656.12</v>
       </c>
       <c r="F15" t="n">
-        <v>17744.4</v>
+        <v>15161.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1678.38</v>
+        <v>15741.98</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -923,19 +923,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16261.61</v>
+        <v>4309.8</v>
       </c>
       <c r="D16" t="n">
-        <v>18237.15</v>
+        <v>16909.42</v>
       </c>
       <c r="E16" t="n">
-        <v>12990.12</v>
+        <v>14349.65</v>
       </c>
       <c r="F16" t="n">
-        <v>16767.64</v>
+        <v>10959.23</v>
       </c>
       <c r="G16" t="n">
-        <v>17366.83</v>
+        <v>9862.02</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -955,19 +955,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4449.95</v>
+        <v>1139.04</v>
       </c>
       <c r="D17" t="n">
-        <v>1120.78</v>
+        <v>4575.12</v>
       </c>
       <c r="E17" t="n">
-        <v>11399.84</v>
+        <v>6805.18</v>
       </c>
       <c r="F17" t="n">
-        <v>7792.07</v>
+        <v>12852.32</v>
       </c>
       <c r="G17" t="n">
-        <v>9722.85</v>
+        <v>13204.45</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11902.75</v>
+        <v>6593.82</v>
       </c>
       <c r="D18" t="n">
-        <v>16482.62</v>
+        <v>9062.540000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>12506.75</v>
+        <v>6990.37</v>
       </c>
       <c r="F18" t="n">
-        <v>13796.86</v>
+        <v>18110.54</v>
       </c>
       <c r="G18" t="n">
-        <v>6591.69</v>
+        <v>8957.57</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1019,19 +1019,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7760.36</v>
+        <v>13933.94</v>
       </c>
       <c r="D19" t="n">
-        <v>3293.71</v>
+        <v>11170.61</v>
       </c>
       <c r="E19" t="n">
-        <v>10521.54</v>
+        <v>9733.35</v>
       </c>
       <c r="F19" t="n">
-        <v>17626.63</v>
+        <v>1260.66</v>
       </c>
       <c r="G19" t="n">
-        <v>9774.940000000001</v>
+        <v>18264.95</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11849.91</v>
+        <v>6092.97</v>
       </c>
       <c r="D20" t="n">
-        <v>4779.17</v>
+        <v>5681</v>
       </c>
       <c r="E20" t="n">
-        <v>2856.32</v>
+        <v>9607.17</v>
       </c>
       <c r="F20" t="n">
-        <v>14071.29</v>
+        <v>12513.76</v>
       </c>
       <c r="G20" t="n">
-        <v>9523.690000000001</v>
+        <v>7977.11</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19597.98</v>
+        <v>16730.66</v>
       </c>
       <c r="D21" t="n">
-        <v>7659.44</v>
+        <v>14466.34</v>
       </c>
       <c r="E21" t="n">
-        <v>13342.9</v>
+        <v>16337.14</v>
       </c>
       <c r="F21" t="n">
-        <v>9311.809999999999</v>
+        <v>19388.2</v>
       </c>
       <c r="G21" t="n">
-        <v>2821.22</v>
+        <v>13109.39</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1115,19 +1115,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13658.26</v>
+        <v>5050.11</v>
       </c>
       <c r="D22" t="n">
-        <v>17044.75</v>
+        <v>4322.81</v>
       </c>
       <c r="E22" t="n">
-        <v>4391.65</v>
+        <v>4593.02</v>
       </c>
       <c r="F22" t="n">
-        <v>1736.56</v>
+        <v>19693.29</v>
       </c>
       <c r="G22" t="n">
-        <v>5540.66</v>
+        <v>9708.139999999999</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17319.59</v>
+        <v>17866</v>
       </c>
       <c r="D23" t="n">
-        <v>3715.68</v>
+        <v>8086.23</v>
       </c>
       <c r="E23" t="n">
-        <v>16143.14</v>
+        <v>16660.29</v>
       </c>
       <c r="F23" t="n">
-        <v>15993.1</v>
+        <v>18532.17</v>
       </c>
       <c r="G23" t="n">
-        <v>18582.09</v>
+        <v>2644.8</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1179,19 +1179,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10251.75</v>
+        <v>17479.13</v>
       </c>
       <c r="D24" t="n">
-        <v>6025.53</v>
+        <v>3219.05</v>
       </c>
       <c r="E24" t="n">
-        <v>11659.8</v>
+        <v>4919.78</v>
       </c>
       <c r="F24" t="n">
-        <v>16548.38</v>
+        <v>8307.16</v>
       </c>
       <c r="G24" t="n">
-        <v>18005.7</v>
+        <v>16943.83</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11505.12</v>
+        <v>15924.83</v>
       </c>
       <c r="D25" t="n">
-        <v>17733.31</v>
+        <v>12921.57</v>
       </c>
       <c r="E25" t="n">
-        <v>1140.88</v>
+        <v>6894.23</v>
       </c>
       <c r="F25" t="n">
-        <v>10841.82</v>
+        <v>7928.03</v>
       </c>
       <c r="G25" t="n">
-        <v>16200.22</v>
+        <v>2523.25</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1243,19 +1243,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17957.88</v>
+        <v>19029.97</v>
       </c>
       <c r="D26" t="n">
-        <v>12663.61</v>
+        <v>17394.73</v>
       </c>
       <c r="E26" t="n">
-        <v>18737.86</v>
+        <v>7126.07</v>
       </c>
       <c r="F26" t="n">
-        <v>11566.89</v>
+        <v>18658.57</v>
       </c>
       <c r="G26" t="n">
-        <v>6481.47</v>
+        <v>7411.15</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10923.47</v>
+        <v>2259.36</v>
       </c>
       <c r="D27" t="n">
-        <v>5660.95</v>
+        <v>11798.18</v>
       </c>
       <c r="E27" t="n">
-        <v>12295.73</v>
+        <v>14712.95</v>
       </c>
       <c r="F27" t="n">
-        <v>19692.62</v>
+        <v>12789.74</v>
       </c>
       <c r="G27" t="n">
-        <v>7995.29</v>
+        <v>15877.06</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1307,19 +1307,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12140.76</v>
+        <v>4349.92</v>
       </c>
       <c r="D28" t="n">
-        <v>17382.68</v>
+        <v>15633.46</v>
       </c>
       <c r="E28" t="n">
-        <v>2365.4</v>
+        <v>5032.5</v>
       </c>
       <c r="F28" t="n">
-        <v>5888.24</v>
+        <v>9247.82</v>
       </c>
       <c r="G28" t="n">
-        <v>13683.08</v>
+        <v>9297.26</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1339,19 +1339,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10104.84</v>
+        <v>17027.45</v>
       </c>
       <c r="D29" t="n">
-        <v>17369.81</v>
+        <v>7204.4</v>
       </c>
       <c r="E29" t="n">
-        <v>16382.98</v>
+        <v>19631.37</v>
       </c>
       <c r="F29" t="n">
-        <v>5473.83</v>
+        <v>15271.96</v>
       </c>
       <c r="G29" t="n">
-        <v>1129.09</v>
+        <v>17212.11</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1371,19 +1371,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3537.88</v>
+        <v>4461.11</v>
       </c>
       <c r="D30" t="n">
-        <v>5661.45</v>
+        <v>5677.79</v>
       </c>
       <c r="E30" t="n">
-        <v>17713.59</v>
+        <v>7606.77</v>
       </c>
       <c r="F30" t="n">
-        <v>9899.309999999999</v>
+        <v>19156.11</v>
       </c>
       <c r="G30" t="n">
-        <v>10194.24</v>
+        <v>14032.13</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5866.25</v>
+        <v>1484.51</v>
       </c>
       <c r="D31" t="n">
-        <v>13567.98</v>
+        <v>2793.68</v>
       </c>
       <c r="E31" t="n">
-        <v>13137.55</v>
+        <v>16918.19</v>
       </c>
       <c r="F31" t="n">
-        <v>10320.67</v>
+        <v>14216.09</v>
       </c>
       <c r="G31" t="n">
-        <v>13600.95</v>
+        <v>16251.54</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9153.18</v>
+        <v>6568.33</v>
       </c>
       <c r="D32" t="n">
-        <v>2271.31</v>
+        <v>18452.06</v>
       </c>
       <c r="E32" t="n">
-        <v>13715.46</v>
+        <v>18687.21</v>
       </c>
       <c r="F32" t="n">
-        <v>4082.78</v>
+        <v>13811.38</v>
       </c>
       <c r="G32" t="n">
-        <v>15039.14</v>
+        <v>19742.49</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1467,19 +1467,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6535.13</v>
+        <v>9532.450000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>6503.8</v>
+        <v>16906.1</v>
       </c>
       <c r="E33" t="n">
-        <v>18334.7</v>
+        <v>18553.21</v>
       </c>
       <c r="F33" t="n">
-        <v>6422.42</v>
+        <v>19236.62</v>
       </c>
       <c r="G33" t="n">
-        <v>10140.17</v>
+        <v>15110.19</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6596.46</v>
+        <v>11676.17</v>
       </c>
       <c r="D34" t="n">
-        <v>14320.3</v>
+        <v>6759.29</v>
       </c>
       <c r="E34" t="n">
-        <v>19556.2</v>
+        <v>13928.27</v>
       </c>
       <c r="F34" t="n">
-        <v>16350.5</v>
+        <v>8863.84</v>
       </c>
       <c r="G34" t="n">
-        <v>16273.07</v>
+        <v>1606.57</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1531,19 +1531,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1010.49</v>
+        <v>7925.52</v>
       </c>
       <c r="D35" t="n">
-        <v>15958.6</v>
+        <v>1253</v>
       </c>
       <c r="E35" t="n">
-        <v>5350.15</v>
+        <v>18441.99</v>
       </c>
       <c r="F35" t="n">
-        <v>13086.91</v>
+        <v>12006.5</v>
       </c>
       <c r="G35" t="n">
-        <v>2006.78</v>
+        <v>9368.59</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1563,19 +1563,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2420.46</v>
+        <v>8505.35</v>
       </c>
       <c r="D36" t="n">
-        <v>2430.71</v>
+        <v>17822.97</v>
       </c>
       <c r="E36" t="n">
-        <v>9840.24</v>
+        <v>19539.84</v>
       </c>
       <c r="F36" t="n">
-        <v>8013.22</v>
+        <v>12787.56</v>
       </c>
       <c r="G36" t="n">
-        <v>6433.15</v>
+        <v>3122.55</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
